--- a/week2/carmanufacturer.xlsx
+++ b/week2/carmanufacturer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8299614b0b0b5a34/Documents/BYU-Idaho/TA/ITM 220-SQL/clarkprep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8299614b0b0b5a34/Documents/BYU-Idaho/TA/ITM 220-SQL/new_itm220/github/itm220student/week2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D6A1CAA-C9D8-4BFC-8AD8-65199D0212FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{4D6A1CAA-C9D8-4BFC-8AD8-65199D0212FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D1F14F1-BA12-4831-90C7-B8BED4CEC7A6}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{25D3198B-1459-4A1F-B427-195F26B67169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25D3198B-1459-4A1F-B427-195F26B67169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,6 +252,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,10 +578,20 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1065,5 +1079,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>